--- a/totalC 100FINAL.xlsx
+++ b/totalC 100FINAL.xlsx
@@ -540,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>82.66</v>
+        <v>58.16</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>85</v>
+        <v>89.53</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>337.66</v>
+        <v>337.22</v>
       </c>
       <c r="P3">
-        <v>18559</v>
+        <v>18442</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -590,13 +590,13 @@
         <v>106.76</v>
       </c>
       <c r="E4">
-        <v>25.54</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>85</v>
+        <v>96.89</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>85</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>387.3</v>
+        <v>386.94</v>
       </c>
       <c r="P4">
-        <v>20470</v>
+        <v>20315</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91.58</v>
+        <v>102.21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>87.13</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>22.4</v>
+        <v>8.19</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>85</v>
+        <v>87.12</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>283.98</v>
+        <v>284.66</v>
       </c>
       <c r="P5">
-        <v>14422</v>
+        <v>14314</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -690,13 +690,13 @@
         <v>107.25</v>
       </c>
       <c r="E6">
-        <v>39.75</v>
+        <v>7.22</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>82.59</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -714,16 +714,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>85</v>
+        <v>92.14</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>399.59</v>
+        <v>398.76</v>
       </c>
       <c r="P6">
-        <v>21203</v>
+        <v>21010</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>89.47</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>63.16</v>
+        <v>54.88</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>85</v>
+        <v>89.41</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>337.73</v>
+        <v>338.32</v>
       </c>
       <c r="P7">
-        <v>17517</v>
+        <v>17464</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>78.81</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>85</v>
+        <v>90.28</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>354.26</v>
+        <v>354.97</v>
       </c>
       <c r="P8">
-        <v>18500</v>
+        <v>18437</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -840,13 +840,13 @@
         <v>106.82</v>
       </c>
       <c r="E9">
-        <v>30.01</v>
+        <v>0.72</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>91.72</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>85</v>
+        <v>91.68000000000001</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>391.84</v>
+        <v>390.94</v>
       </c>
       <c r="P9">
-        <v>20741</v>
+        <v>20554</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -890,13 +890,13 @@
         <v>107.2</v>
       </c>
       <c r="E10">
-        <v>36.27</v>
+        <v>6.28</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>85</v>
+        <v>92.09</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>92.08</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>398.47</v>
+        <v>397.65</v>
       </c>
       <c r="P10">
-        <v>21136</v>
+        <v>20945</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>-58.81</v>
+        <v>10.45</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -946,34 +946,34 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-59.67</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>84.45</v>
+        <v>35.53</v>
       </c>
       <c r="J11">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>120</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>89.55</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>355.96</v>
+        <v>355.53</v>
       </c>
       <c r="P11">
-        <v>64874</v>
+        <v>26197</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>87.11</v>
+        <v>59.83</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>85</v>
+        <v>90.83</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1078,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>85</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>342.11</v>
+        <v>341.49</v>
       </c>
       <c r="P15">
-        <v>18826</v>
+        <v>18672</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1104,13 +1104,13 @@
         <v>108.24</v>
       </c>
       <c r="E16">
-        <v>29.11</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>97.31</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1128,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>85</v>
+        <v>93.13</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>392.36</v>
+        <v>391.81</v>
       </c>
       <c r="P16">
-        <v>20759</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>85</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.1</v>
+        <v>10.75</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>85</v>
+        <v>88.3</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>290.49</v>
+        <v>290.77</v>
       </c>
       <c r="P17">
-        <v>14695</v>
+        <v>14645</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1204,13 +1204,13 @@
         <v>108.65</v>
       </c>
       <c r="E18">
-        <v>38.05</v>
+        <v>5.12</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>93.56</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>85</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>401.7</v>
+        <v>400.86</v>
       </c>
       <c r="P18">
-        <v>21315</v>
+        <v>21094</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>91.45</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>79.8</v>
+        <v>67.87</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1278,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>85</v>
+        <v>91.39</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>356.34</v>
+        <v>357.24</v>
       </c>
       <c r="P19">
-        <v>18614</v>
+        <v>18540</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1304,13 +1304,13 @@
         <v>107.7</v>
       </c>
       <c r="E20">
-        <v>15.54</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>85</v>
+        <v>92.61</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>85</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>85</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>378.24</v>
+        <v>377.99</v>
       </c>
       <c r="P20">
-        <v>19917</v>
+        <v>19751</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1354,13 +1354,13 @@
         <v>108.89</v>
       </c>
       <c r="E21">
-        <v>46.05</v>
+        <v>12.33</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>93.78</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>85</v>
+        <v>93.81</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>409.94</v>
+        <v>408.82</v>
       </c>
       <c r="P21">
-        <v>21807</v>
+        <v>21564</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1404,13 +1404,13 @@
         <v>108.72</v>
       </c>
       <c r="E22">
-        <v>40.04</v>
+        <v>6.71</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1428,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>85</v>
+        <v>93.62</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>403.77</v>
+        <v>402.67</v>
       </c>
       <c r="P22">
-        <v>21438</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1454,13 +1454,13 @@
         <v>107.03</v>
       </c>
       <c r="E23">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>91.94</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>85</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>85</v>
+        <v>91.31</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>365.99</v>
+        <v>366.2</v>
       </c>
       <c r="P23">
-        <v>19189</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1568,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>90.97</v>
+        <v>60.75</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1592,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>85</v>
+        <v>92.38</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>345.97</v>
+        <v>345.53</v>
       </c>
       <c r="P27">
-        <v>19057</v>
+        <v>18884</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -1618,13 +1618,13 @@
         <v>110.04</v>
       </c>
       <c r="E28">
-        <v>31.26</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>94.92</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>85</v>
+        <v>96.11</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>85</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>396.29</v>
+        <v>395.97</v>
       </c>
       <c r="P28">
-        <v>20977</v>
+        <v>20759</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>85</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>20.9</v>
+        <v>11.9</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>85</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29">
-        <v>295.71</v>
+        <v>296.17</v>
       </c>
       <c r="P29">
-        <v>14994</v>
+        <v>14927</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -1718,13 +1718,13 @@
         <v>110.27</v>
       </c>
       <c r="E30">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>85</v>
+        <v>95.17</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>85</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30">
-        <v>402.28</v>
+        <v>401.6</v>
       </c>
       <c r="P30">
-        <v>21333</v>
+        <v>21089</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="P31">
         <v>105</v>
@@ -1818,13 +1818,13 @@
         <v>109.77</v>
       </c>
       <c r="E32">
-        <v>24.37</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>85</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>85</v>
+        <v>89.58</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1842,16 +1842,16 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>85</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>389.14</v>
+        <v>388.63</v>
       </c>
       <c r="P32">
-        <v>20550</v>
+        <v>20327</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1868,13 +1868,13 @@
         <v>110.06</v>
       </c>
       <c r="E33">
-        <v>35.36</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>85</v>
+        <v>94.97</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>99.62</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>85</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>400.43</v>
+        <v>399.57</v>
       </c>
       <c r="P33">
-        <v>21224</v>
+        <v>20974</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -1918,13 +1918,13 @@
         <v>110.44</v>
       </c>
       <c r="E34">
-        <v>40.29</v>
+        <v>3.71</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>85</v>
+        <v>95.33</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>85</v>
+        <v>95.34</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34">
-        <v>405.73</v>
+        <v>404.83</v>
       </c>
       <c r="P34">
-        <v>21539</v>
+        <v>21278</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -1968,13 +1968,13 @@
         <v>108.95</v>
       </c>
       <c r="E35">
-        <v>11.19</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>85</v>
+        <v>93.87</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>85</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>85</v>
+        <v>93.37</v>
       </c>
       <c r="N35">
         <v>0</v>
       </c>
       <c r="O35">
-        <v>375.14</v>
+        <v>375.23</v>
       </c>
       <c r="P35">
-        <v>19718</v>
+        <v>19551</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2009,7 +2009,7 @@
         <v>27</v>
       </c>
       <c r="P37">
-        <v>34200</v>
+        <v>16900.00000424225</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2025,7 +2025,7 @@
         <v>29</v>
       </c>
       <c r="P39">
-        <v>553494.6897882044</v>
+        <v>510685.2856249657</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2038,7 +2038,7 @@
         <v>31</v>
       </c>
       <c r="P41">
-        <v>587694</v>
+        <v>527585</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2046,7 +2046,7 @@
         <v>32</v>
       </c>
       <c r="P43">
-        <v>10.3562</v>
+        <v>4.161</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2078,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>1.00000000151509</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
